--- a/biology/Zoologie/Alvarezsauridae/Alvarezsauridae.xlsx
+++ b/biology/Zoologie/Alvarezsauridae/Alvarezsauridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alvarezsauridae constitue une famille fossile, assez étrange de petits dinosaures théropodes à longues pattes capables de se déplacer en courant. On pensait au départ qu'ils étaient les premiers oiseaux incapables de voler[réf. nécessaire], mais la plupart des spécialistes les voient aujourd'hui plutôt comme des membres primitifs des Maniraptora[réf. nécessaire]. D'autres travaux suggèrent qu'ils sont un groupe frère des Ornithomimosauria[réf. nécessaire].
 Cette famille est très spécialisée. Leurs membres antérieurs sont minuscules mais robustes et complétés par des « mains ». Leur squelette laisse croire qu'ils avaient une imposante poitrine et des muscles des bras peut-être adaptés pour creuser ou déchirer[réf. nécessaire]. Ils possédaient un museau en forme de tube, des mâchoires allongées et des dents minuscules. Ils étaient peut-être adaptées pour se nourrir d'insectes coloniaux, tels les termites[réf. nécessaire].
@@ -512,7 +524,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Famille Alvarezsauridae
 Achillesaurus
@@ -521,13 +535,13 @@
 Kol
 Patagonykus
 Sous-famille Parvicursorinae
-Ceratonykus[1]
+Ceratonykus
 ? Heptasteornis
 Linhenykus
 Mononykus
 Parvicursor
 Shuvuuia
-Xixianykus[2]</t>
+Xixianykus</t>
         </is>
       </c>
     </row>
@@ -555,10 +569,12 @@
           <t>Classification phylogénétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme suivant montre la position phylogénétique des Alvarezsauridae, suivant l'étude menée par Makovicky, Apesteguía et Gianechini en 2012, lors de description lors de la description d'Alnashetri cerropoliciensis[3] :
-Une analyse phylogénétique ou cladogramme Alvarezsauridae réalisée par Averianov &amp; Sues en 2022[4] est reproduite ci-dessous :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme suivant montre la position phylogénétique des Alvarezsauridae, suivant l'étude menée par Makovicky, Apesteguía et Gianechini en 2012, lors de description lors de la description d'Alnashetri cerropoliciensis :
+Une analyse phylogénétique ou cladogramme Alvarezsauridae réalisée par Averianov &amp; Sues en 2022 est reproduite ci-dessous :
 </t>
         </is>
       </c>
